--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3318.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3318.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153033035794194</v>
+        <v>1.821486949920654</v>
       </c>
       <c r="B1">
-        <v>1.264129916072982</v>
+        <v>4.535807609558105</v>
       </c>
       <c r="C1">
-        <v>1.493569180503733</v>
+        <v>4.132960319519043</v>
       </c>
       <c r="D1">
-        <v>2.599956479202783</v>
+        <v>0.9058610200881958</v>
       </c>
       <c r="E1">
-        <v>7.879402000491589</v>
+        <v>0.4753615856170654</v>
       </c>
     </row>
   </sheetData>
